--- a/Tools/TableTools/Tables/Excel/Skill/Tab_SkillData.xlsx
+++ b/Tools/TableTools/Tables/Excel/Skill/Tab_SkillData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>检测施法距离，检测失败则不释放，-1表示不检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def:-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,21 +477,41 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Tools/TableTools/Tables/Excel/Skill/Tab_SkillData.xlsx
+++ b/Tools/TableTools/Tables/Excel/Skill/Tab_SkillData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>Def:-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveId0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移（可以有多个）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,21 +433,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +465,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -474,8 +488,11 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -494,8 +511,11 @@
       <c r="F3">
         <v>-1</v>
       </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -513,6 +533,9 @@
       </c>
       <c r="F4" t="s">
         <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
